--- a/biology/Botanique/Paspalum_paniculatum/Paspalum_paniculatum.xlsx
+++ b/biology/Botanique/Paspalum_paniculatum/Paspalum_paniculatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paspalum paniculatum, l'herbe-duvet, est une espèce de plantes monocotylédones de la famille des Poaceae, originaire des régions tropicales.
 Ce sont des plantes herbacées vivaces, cespiteuses, dont les tiges (chaumes) peuvent atteindre 2 m de long, aux inflorescences composées de nombreux racèmes formant une panicule.
 Paspalum paniculatum est une mauvaise herbe des cultures.
-Des populations de Paspalum paniculatum ont été signalées comme résistantes au glyphosate depuis 2010  au Costa Rica dans des plantations de bananiers et de palmiers pêche (Bactris gasipaes)[2].
+Des populations de Paspalum paniculatum ont été signalées comme résistantes au glyphosate depuis 2010  au Costa Rica dans des plantations de bananiers et de palmiers pêche (Bactris gasipaes).
 </t>
         </is>
       </c>
@@ -514,14 +526,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paspalum paniculatum est une  plante herbacée vivace, cespiteuse, dont les tiges (chaumes) dressées peuvent atteindre de 30 cm à 2 m de long. Les feuilles, au limbe effilé de 9 à 50 cm de long sur 6 à 25 mm de large, présentent une ligule membraneuse non ciliée de 2 à 3 mm de long[3].
-L'inflorescence est une panicule composée de racèmes spiciformes, de 4 à 12 cm de long, dont le nombre varie de 7 à 60, disposés de manière unilatérale le long d'un axe central[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paspalum paniculatum est une  plante herbacée vivace, cespiteuse, dont les tiges (chaumes) dressées peuvent atteindre de 30 cm à 2 m de long. Les feuilles, au limbe effilé de 9 à 50 cm de long sur 6 à 25 mm de large, présentent une ligule membraneuse non ciliée de 2 à 3 mm de long.
+L'inflorescence est une panicule composée de racèmes spiciformes, de 4 à 12 cm de long, dont le nombre varie de 7 à 60, disposés de manière unilatérale le long d'un axe central.
 Les épillets fertiles, orbiculaires, comprimés dorsalement, de 1,3 à 1,4 mm de long, comprennent un fleuron basal stérile et un fleuron fertile, sans extension du rachillet.
 Ils se détachent entiers lors de la désarticulation à maturité.
 Ils ne présentent qu'une glume, la glume inférieure étant absente ou très réduite. La glume supérieure, orbiculaire, à apex obtus, membraneuse, de couleur brun foncé, est aussi longue que l'épillet.
-Les fleurons stériles présentent une lemme elliptique, membraneuse, similaire à la glume supérieure. La lemme des fleurons fertiles, de 1 à 1,2 mm de long, est orbiculaire hémisphérique, gibbeuse, striée en surface[3].
+Les fleurons stériles présentent une lemme elliptique, membraneuse, similaire à la glume supérieure. La lemme des fleurons fertiles, de 1 à 1,2 mm de long, est orbiculaire hémisphérique, gibbeuse, striée en surface.
 </t>
         </is>
       </c>
@@ -550,11 +564,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle de Paspalum paniculatum s'étend dans les régions tropicales d'Afrique (Angola, Cameroun, Gabon, Libéria, Ouganda, Sao Tomé-et-Principe) et d'Amérique, du Mexique à l'Argentine, en incluant la plupart des pays d'Amérique centrale (Belize, Costa Rica, Le Salvador, Guatemala, Honduras, Nicaragua, Panama), des Caraïbes (Anguilla, Bahamas, Cuba, Dominique, Grenade, Guadeloupe, Hispaniola, Jamaïque, Martinique, Porto Rico, Saint-Christophe-et-Niévès, Sainte-Lucie) et d'Amérique du Sud (Argentine, Bolivie, Brésil, Colombie, Équateur, Guyane française, Guyana, Paraguay, Pérou, Suriname, Venezuela)[4].
-L'espèce s'est naturalisée dans la plupart des régions tropicales du monde, en Asie (Papouasie-Nouvelle-Guinée), en Australasie (Australie), en Amérique du Nord (États-Unis) et dans le  Pacifique (Micronésie)[4].
-Elle est également présente dans les îles de l'océan Indien : Comores, Madagascar, Île Maurice, La Réunion, Seychelles[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle de Paspalum paniculatum s'étend dans les régions tropicales d'Afrique (Angola, Cameroun, Gabon, Libéria, Ouganda, Sao Tomé-et-Principe) et d'Amérique, du Mexique à l'Argentine, en incluant la plupart des pays d'Amérique centrale (Belize, Costa Rica, Le Salvador, Guatemala, Honduras, Nicaragua, Panama), des Caraïbes (Anguilla, Bahamas, Cuba, Dominique, Grenade, Guadeloupe, Hispaniola, Jamaïque, Martinique, Porto Rico, Saint-Christophe-et-Niévès, Sainte-Lucie) et d'Amérique du Sud (Argentine, Bolivie, Brésil, Colombie, Équateur, Guyane française, Guyana, Paraguay, Pérou, Suriname, Venezuela).
+L'espèce s'est naturalisée dans la plupart des régions tropicales du monde, en Asie (Papouasie-Nouvelle-Guinée), en Australasie (Australie), en Amérique du Nord (États-Unis) et dans le  Pacifique (Micronésie).
+Elle est également présente dans les îles de l'océan Indien : Comores, Madagascar, Île Maurice, La Réunion, Seychelles.
 </t>
         </is>
       </c>
@@ -583,11 +599,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Paspalum paniculatum a été décrite pour la première fois par Linné et publiée dans son Systema naturae en 1759[6].
-Synonymes
-Selon Tropicos                                           (28 septembre 2017)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Paspalum paniculatum a été décrite pour la première fois par Linné et publiée dans son Systema naturae en 1759.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paspalum_paniculatum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paspalum_paniculatum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (28 septembre 2017) :
 Paspalum affine Bello, nom. illeg.
 Paspalum compressicaule Raddi
 Paspalum cordovense E.Fourn.
@@ -601,8 +654,43 @@
 Paspalum polystachyum Salzm. ex Steud.
 Paspalum strictum Pers.
 Paspalum supinum Rupr. ex Galeotti, nom. illeg.
-Liste des sous-espèces et variétés
-Selon Tropicos                                           (27 septembre 2017)[8] (Attention liste brute contenant possiblement des synonymes)  :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Paspalum_paniculatum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paspalum_paniculatum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (27 septembre 2017) (Attention liste brute contenant possiblement des synonymes)  :
 sous-espèce Paspalum paniculatum subsp. paniculatum
 sous-espèce Paspalum paniculatum subsp. umbrosum (Trin.) Roseng., B.R. Arrill. &amp; Izag.
 variété Paspalum paniculatum var. grandiflorum Döll
